--- a/data/financial_statements/soci/TFC.xlsx
+++ b/data/financial_statements/soci/TFC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1438 +584,1471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>5922000000</v>
+        <v>7465000000</v>
       </c>
       <c r="C2">
-        <v>5713000000</v>
+        <v>6471000000</v>
       </c>
       <c r="D2">
-        <v>5418000000</v>
+        <v>5921000000</v>
       </c>
       <c r="E2">
-        <v>5508000000</v>
+        <v>5499000000</v>
       </c>
       <c r="F2">
-        <v>5664000000</v>
+        <v>5734000000</v>
       </c>
       <c r="G2">
+        <v>5791000000</v>
+      </c>
+      <c r="H2">
         <v>5848000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5691000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5896000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>5833000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>6311000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>6387000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4210000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3521000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3558000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3375000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3371000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3308000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3216000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3101000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3123000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3043000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3044000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2946000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2907000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2959000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2935000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2737000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2710000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2638000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2508000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2490000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2540000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2490000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2495000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2473000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2650000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2544000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2689000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2660000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.0456</v>
+        <v>0.3019</v>
       </c>
       <c r="C3">
-        <v>-0.0231</v>
+        <v>0.1174</v>
       </c>
       <c r="D3">
-        <v>-0.048</v>
+        <v>0.0125</v>
       </c>
       <c r="E3">
-        <v>-0.0658</v>
+        <v>-0.0337</v>
       </c>
       <c r="F3">
-        <v>-0.029</v>
+        <v>-0.0275</v>
       </c>
       <c r="G3">
+        <v>-0.0072</v>
+      </c>
+      <c r="H3">
         <v>-0.07340000000000001</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.109</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.4005</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.6566</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.7737000000000001</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.8924</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.2489</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0644</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1063</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.08840000000000001</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0794</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0871</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0565</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0526</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0743</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0284</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0371</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0764</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0727</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1217</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.1703</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0992</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0669</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0594</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0052</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0069</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.0415</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0212</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.0721</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0703</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.035</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>-0.0518</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0019</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.0176</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1257000000</v>
+      </c>
+      <c r="C4">
         <v>624000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>266000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>174000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>168000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>193000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>198000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>209000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>245000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>261000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>440000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>776000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>585000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>518000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>516000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>477000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>431000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>382000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>337000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>288000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>254000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>230000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>189000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>166000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>180000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>185000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>188000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>192000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>191000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>186000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>177000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>181000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>183000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>192000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>194000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>199000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>204000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>222000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>228000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>237000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>6208000000</v>
+      </c>
+      <c r="C5">
         <v>5847000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5655000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>5325000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5566000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5598000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5650000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5482000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5651000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5572000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5871000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>5611000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3625000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3003000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3042000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2898000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2940000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2926000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2879000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2813000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2869000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2813000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>2855000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2780000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2727000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2774000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2747000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2545000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2519000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>2452000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2331000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2309000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>2357000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2298000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2301000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2274000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2446000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2322000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2461000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2423000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3868000000</v>
+      </c>
+      <c r="C6">
         <v>3600000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3440000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3178000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3196000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3107000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3091000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3323000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3476000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>3714000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>4258000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3981000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2409000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>1859000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1839000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1782000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1700000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1826000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1800000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1775000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1817000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1790000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1831000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2176000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1746000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1778000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>1774000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>1674000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>1644000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>1591000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>1702000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1487000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>1437000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>1543000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>1572000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1414000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>1420000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>1533000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1610000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1654000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>2133000000</v>
+      </c>
+      <c r="C7">
         <v>2062000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2025000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1962000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2181000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2299000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2370000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1965000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1949000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1632000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1358000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1394000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1102000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1080000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1142000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1055000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1086000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1067000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1048000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1005000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>898000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>989000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>988000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>566000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>943000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>958000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>931000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>839000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>843000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>832000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>606000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>801000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>898000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>732000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>706000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>837000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1000000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>763000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>824000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>742000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>62000000</v>
+        <v>-114000000</v>
       </c>
       <c r="C8">
-        <v>82000000</v>
+        <v>-62000000</v>
       </c>
       <c r="D8">
+        <v>-121000000</v>
+      </c>
+      <c r="E8">
+        <v>-216000000</v>
+      </c>
+      <c r="F8">
+        <v>-212000000</v>
+      </c>
+      <c r="G8">
+        <v>-172000000</v>
+      </c>
+      <c r="H8">
+        <v>-297000000</v>
+      </c>
+      <c r="I8">
+        <v>-141000000</v>
+      </c>
+      <c r="J8">
+        <v>-308000000</v>
+      </c>
+      <c r="K8">
+        <v>-236000000</v>
+      </c>
+      <c r="L8">
+        <v>-209000000</v>
+      </c>
+      <c r="M8">
+        <v>-107000000</v>
+      </c>
+      <c r="N8">
+        <v>-223000000</v>
+      </c>
+      <c r="O8">
+        <v>-34000000</v>
+      </c>
+      <c r="P8">
+        <v>-23000000</v>
+      </c>
+      <c r="Q8">
+        <v>-80000000</v>
+      </c>
+      <c r="R8">
+        <v>-76000000</v>
+      </c>
+      <c r="S8">
+        <v>-18000000</v>
+      </c>
+      <c r="T8">
+        <v>-24000000</v>
+      </c>
+      <c r="U8">
+        <v>-28000000</v>
+      </c>
+      <c r="V8">
+        <v>-22000000</v>
+      </c>
+      <c r="W8">
+        <v>-47000000</v>
+      </c>
+      <c r="X8">
+        <v>-10000000</v>
+      </c>
+      <c r="Y8">
+        <v>-36000000</v>
+      </c>
+      <c r="Z8">
+        <v>-13000000</v>
+      </c>
+      <c r="AA8">
+        <v>-43000000</v>
+      </c>
+      <c r="AB8">
+        <v>-92000000</v>
+      </c>
+      <c r="AC8">
+        <v>-23000000</v>
+      </c>
+      <c r="AD8">
+        <v>-50000000</v>
+      </c>
+      <c r="AE8">
+        <v>-77000000</v>
+      </c>
+      <c r="AF8">
+        <v>-25000000</v>
+      </c>
+      <c r="AG8">
+        <v>-13000000</v>
+      </c>
+      <c r="AH8">
+        <v>-18000000</v>
+      </c>
+      <c r="AI8">
+        <v>-7000000</v>
+      </c>
+      <c r="AJ8">
+        <v>-13000000</v>
+      </c>
+      <c r="AK8">
+        <v>-8000000</v>
+      </c>
+      <c r="AL8">
+        <v>-10000000</v>
+      </c>
+      <c r="AM8">
+        <v>-4000000</v>
+      </c>
+      <c r="AN8">
+        <v>-27000000</v>
+      </c>
+      <c r="AO8">
+        <v>-5000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>2019000000</v>
+      </c>
+      <c r="C9">
+        <v>2000000000</v>
+      </c>
+      <c r="D9">
+        <v>1904000000</v>
+      </c>
+      <c r="E9">
+        <v>1746000000</v>
+      </c>
+      <c r="F9">
+        <v>1969000000</v>
+      </c>
+      <c r="G9">
+        <v>2127000000</v>
+      </c>
+      <c r="H9">
+        <v>2073000000</v>
+      </c>
+      <c r="I9">
+        <v>1824000000</v>
+      </c>
+      <c r="J9">
+        <v>1641000000</v>
+      </c>
+      <c r="K9">
+        <v>1396000000</v>
+      </c>
+      <c r="L9">
+        <v>1149000000</v>
+      </c>
+      <c r="M9">
+        <v>1287000000</v>
+      </c>
+      <c r="N9">
+        <v>879000000</v>
+      </c>
+      <c r="O9">
+        <v>1046000000</v>
+      </c>
+      <c r="P9">
+        <v>1119000000</v>
+      </c>
+      <c r="Q9">
+        <v>975000000</v>
+      </c>
+      <c r="R9">
+        <v>1010000000</v>
+      </c>
+      <c r="S9">
+        <v>1049000000</v>
+      </c>
+      <c r="T9">
+        <v>1024000000</v>
+      </c>
+      <c r="U9">
+        <v>977000000</v>
+      </c>
+      <c r="V9">
+        <v>876000000</v>
+      </c>
+      <c r="W9">
+        <v>942000000</v>
+      </c>
+      <c r="X9">
+        <v>978000000</v>
+      </c>
+      <c r="Y9">
+        <v>530000000</v>
+      </c>
+      <c r="Z9">
+        <v>930000000</v>
+      </c>
+      <c r="AA9">
+        <v>915000000</v>
+      </c>
+      <c r="AB9">
+        <v>839000000</v>
+      </c>
+      <c r="AC9">
+        <v>816000000</v>
+      </c>
+      <c r="AD9">
+        <v>793000000</v>
+      </c>
+      <c r="AE9">
+        <v>755000000</v>
+      </c>
+      <c r="AF9">
+        <v>581000000</v>
+      </c>
+      <c r="AG9">
+        <v>788000000</v>
+      </c>
+      <c r="AH9">
+        <v>880000000</v>
+      </c>
+      <c r="AI9">
+        <v>725000000</v>
+      </c>
+      <c r="AJ9">
+        <v>693000000</v>
+      </c>
+      <c r="AK9">
+        <v>829000000</v>
+      </c>
+      <c r="AL9">
+        <v>990000000</v>
+      </c>
+      <c r="AM9">
+        <v>759000000</v>
+      </c>
+      <c r="AN9">
+        <v>797000000</v>
+      </c>
+      <c r="AO9">
+        <v>737000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>337000000</v>
+      </c>
+      <c r="C10">
+        <v>363000000</v>
+      </c>
+      <c r="D10">
+        <v>372000000</v>
+      </c>
+      <c r="E10">
+        <v>330000000</v>
+      </c>
+      <c r="F10">
+        <v>367000000</v>
+      </c>
+      <c r="G10">
+        <v>423000000</v>
+      </c>
+      <c r="H10">
+        <v>415000000</v>
+      </c>
+      <c r="I10">
+        <v>351000000</v>
+      </c>
+      <c r="J10">
+        <v>311000000</v>
+      </c>
+      <c r="K10">
+        <v>255000000</v>
+      </c>
+      <c r="L10">
+        <v>191000000</v>
+      </c>
+      <c r="M10">
+        <v>224000000</v>
+      </c>
+      <c r="N10">
+        <v>153000000</v>
+      </c>
+      <c r="O10">
+        <v>218000000</v>
+      </c>
+      <c r="P10">
+        <v>234000000</v>
+      </c>
+      <c r="Q10">
+        <v>177000000</v>
+      </c>
+      <c r="R10">
+        <v>205000000</v>
+      </c>
+      <c r="S10">
+        <v>210000000</v>
+      </c>
+      <c r="T10">
+        <v>202000000</v>
+      </c>
+      <c r="U10">
+        <v>186000000</v>
+      </c>
+      <c r="V10">
+        <v>209000000</v>
+      </c>
+      <c r="W10">
+        <v>294000000</v>
+      </c>
+      <c r="X10">
+        <v>304000000</v>
+      </c>
+      <c r="Y10">
+        <v>104000000</v>
+      </c>
+      <c r="Z10">
+        <v>287000000</v>
+      </c>
+      <c r="AA10">
+        <v>273000000</v>
+      </c>
+      <c r="AB10">
+        <v>252000000</v>
+      </c>
+      <c r="AC10">
+        <v>246000000</v>
+      </c>
+      <c r="AD10">
+        <v>251000000</v>
+      </c>
+      <c r="AE10">
+        <v>222000000</v>
+      </c>
+      <c r="AF10">
+        <v>80000000</v>
+      </c>
+      <c r="AG10">
+        <v>241000000</v>
+      </c>
+      <c r="AH10">
+        <v>277000000</v>
+      </c>
+      <c r="AI10">
+        <v>172000000</v>
+      </c>
+      <c r="AJ10">
         <v>216000000</v>
       </c>
-      <c r="E8">
-        <v>211000000</v>
-      </c>
-      <c r="F8">
-        <v>172000000</v>
-      </c>
-      <c r="G8">
-        <v>-297000000</v>
-      </c>
-      <c r="H8">
-        <v>-141000000</v>
-      </c>
-      <c r="I8">
-        <v>-308000000</v>
-      </c>
-      <c r="J8">
-        <v>-236000000</v>
-      </c>
-      <c r="K8">
-        <v>-209000000</v>
-      </c>
-      <c r="L8">
-        <v>-107000000</v>
-      </c>
-      <c r="M8">
-        <v>-223000000</v>
-      </c>
-      <c r="N8">
-        <v>-34000000</v>
-      </c>
-      <c r="O8">
-        <v>-23000000</v>
-      </c>
-      <c r="P8">
-        <v>-80000000</v>
-      </c>
-      <c r="Q8">
-        <v>-76000000</v>
-      </c>
-      <c r="R8">
-        <v>-18000000</v>
-      </c>
-      <c r="S8">
-        <v>-24000000</v>
-      </c>
-      <c r="T8">
-        <v>-28000000</v>
-      </c>
-      <c r="U8">
-        <v>-22000000</v>
-      </c>
-      <c r="V8">
-        <v>-47000000</v>
-      </c>
-      <c r="W8">
-        <v>-10000000</v>
-      </c>
-      <c r="X8">
-        <v>-36000000</v>
-      </c>
-      <c r="Y8">
-        <v>-13000000</v>
-      </c>
-      <c r="Z8">
-        <v>-43000000</v>
-      </c>
-      <c r="AA8">
-        <v>-92000000</v>
-      </c>
-      <c r="AB8">
-        <v>-23000000</v>
-      </c>
-      <c r="AC8">
-        <v>-50000000</v>
-      </c>
-      <c r="AD8">
-        <v>-77000000</v>
-      </c>
-      <c r="AE8">
-        <v>-25000000</v>
-      </c>
-      <c r="AF8">
-        <v>-13000000</v>
-      </c>
-      <c r="AG8">
-        <v>-18000000</v>
-      </c>
-      <c r="AH8">
-        <v>-7000000</v>
-      </c>
-      <c r="AI8">
-        <v>-13000000</v>
-      </c>
-      <c r="AJ8">
-        <v>-8000000</v>
-      </c>
-      <c r="AK8">
-        <v>-10000000</v>
-      </c>
-      <c r="AL8">
-        <v>-4000000</v>
-      </c>
-      <c r="AM8">
-        <v>-27000000</v>
-      </c>
-      <c r="AN8">
-        <v>-5000000</v>
+      <c r="AK10">
+        <v>256000000</v>
+      </c>
+      <c r="AL10">
+        <v>401000000</v>
+      </c>
+      <c r="AM10">
+        <v>450000000</v>
+      </c>
+      <c r="AN10">
+        <v>221000000</v>
+      </c>
+      <c r="AO10">
+        <v>481000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2000000000</v>
-      </c>
-      <c r="C9">
-        <v>1904000000</v>
-      </c>
-      <c r="D9">
-        <v>1746000000</v>
-      </c>
-      <c r="E9">
-        <v>1969000000</v>
-      </c>
-      <c r="F9">
-        <v>2127000000</v>
-      </c>
-      <c r="G9">
-        <v>2073000000</v>
-      </c>
-      <c r="H9">
-        <v>1824000000</v>
-      </c>
-      <c r="I9">
-        <v>1641000000</v>
-      </c>
-      <c r="J9">
-        <v>1396000000</v>
-      </c>
-      <c r="K9">
-        <v>1149000000</v>
-      </c>
-      <c r="L9">
-        <v>1287000000</v>
-      </c>
-      <c r="M9">
-        <v>879000000</v>
-      </c>
-      <c r="N9">
-        <v>1046000000</v>
-      </c>
-      <c r="O9">
-        <v>1119000000</v>
-      </c>
-      <c r="P9">
-        <v>975000000</v>
-      </c>
-      <c r="Q9">
-        <v>1010000000</v>
-      </c>
-      <c r="R9">
-        <v>1049000000</v>
-      </c>
-      <c r="S9">
-        <v>1024000000</v>
-      </c>
-      <c r="T9">
-        <v>977000000</v>
-      </c>
-      <c r="U9">
-        <v>876000000</v>
-      </c>
-      <c r="V9">
-        <v>942000000</v>
-      </c>
-      <c r="W9">
-        <v>978000000</v>
-      </c>
-      <c r="X9">
-        <v>530000000</v>
-      </c>
-      <c r="Y9">
-        <v>930000000</v>
-      </c>
-      <c r="Z9">
-        <v>915000000</v>
-      </c>
-      <c r="AA9">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1682000000</v>
+      </c>
+      <c r="C11">
+        <v>1637000000</v>
+      </c>
+      <c r="D11">
+        <v>1532000000</v>
+      </c>
+      <c r="E11">
+        <v>1416000000</v>
+      </c>
+      <c r="F11">
+        <v>1602000000</v>
+      </c>
+      <c r="G11">
+        <v>1704000000</v>
+      </c>
+      <c r="H11">
+        <v>1658000000</v>
+      </c>
+      <c r="I11">
+        <v>1473000000</v>
+      </c>
+      <c r="J11">
+        <v>1330000000</v>
+      </c>
+      <c r="K11">
+        <v>1141000000</v>
+      </c>
+      <c r="L11">
+        <v>958000000</v>
+      </c>
+      <c r="M11">
+        <v>1063000000</v>
+      </c>
+      <c r="N11">
+        <v>726000000</v>
+      </c>
+      <c r="O11">
+        <v>828000000</v>
+      </c>
+      <c r="P11">
+        <v>885000000</v>
+      </c>
+      <c r="Q11">
+        <v>798000000</v>
+      </c>
+      <c r="R11">
+        <v>805000000</v>
+      </c>
+      <c r="S11">
         <v>839000000</v>
       </c>
-      <c r="AB9">
-        <v>816000000</v>
-      </c>
-      <c r="AC9">
-        <v>793000000</v>
-      </c>
-      <c r="AD9">
-        <v>755000000</v>
-      </c>
-      <c r="AE9">
-        <v>581000000</v>
-      </c>
-      <c r="AF9">
-        <v>788000000</v>
-      </c>
-      <c r="AG9">
-        <v>880000000</v>
-      </c>
-      <c r="AH9">
-        <v>725000000</v>
-      </c>
-      <c r="AI9">
-        <v>693000000</v>
-      </c>
-      <c r="AJ9">
-        <v>829000000</v>
-      </c>
-      <c r="AK9">
-        <v>990000000</v>
-      </c>
-      <c r="AL9">
-        <v>759000000</v>
-      </c>
-      <c r="AM9">
-        <v>797000000</v>
-      </c>
-      <c r="AN9">
-        <v>737000000</v>
+      <c r="T11">
+        <v>822000000</v>
+      </c>
+      <c r="U11">
+        <v>791000000</v>
+      </c>
+      <c r="V11">
+        <v>667000000</v>
+      </c>
+      <c r="W11">
+        <v>648000000</v>
+      </c>
+      <c r="X11">
+        <v>674000000</v>
+      </c>
+      <c r="Y11">
+        <v>426000000</v>
+      </c>
+      <c r="Z11">
+        <v>643000000</v>
+      </c>
+      <c r="AA11">
+        <v>642000000</v>
+      </c>
+      <c r="AB11">
+        <v>587000000</v>
+      </c>
+      <c r="AC11">
+        <v>570000000</v>
+      </c>
+      <c r="AD11">
+        <v>542000000</v>
+      </c>
+      <c r="AE11">
+        <v>533000000</v>
+      </c>
+      <c r="AF11">
+        <v>501000000</v>
+      </c>
+      <c r="AG11">
+        <v>547000000</v>
+      </c>
+      <c r="AH11">
+        <v>603000000</v>
+      </c>
+      <c r="AI11">
+        <v>553000000</v>
+      </c>
+      <c r="AJ11">
+        <v>477000000</v>
+      </c>
+      <c r="AK11">
+        <v>573000000</v>
+      </c>
+      <c r="AL11">
+        <v>589000000</v>
+      </c>
+      <c r="AM11">
+        <v>309000000</v>
+      </c>
+      <c r="AN11">
+        <v>576000000</v>
+      </c>
+      <c r="AO11">
+        <v>256000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>363000000</v>
-      </c>
-      <c r="C10">
-        <v>372000000</v>
-      </c>
-      <c r="D10">
-        <v>330000000</v>
-      </c>
-      <c r="E10">
-        <v>367000000</v>
-      </c>
-      <c r="F10">
-        <v>423000000</v>
-      </c>
-      <c r="G10">
-        <v>415000000</v>
-      </c>
-      <c r="H10">
-        <v>351000000</v>
-      </c>
-      <c r="I10">
-        <v>311000000</v>
-      </c>
-      <c r="J10">
-        <v>255000000</v>
-      </c>
-      <c r="K10">
-        <v>191000000</v>
-      </c>
-      <c r="L10">
-        <v>224000000</v>
-      </c>
-      <c r="M10">
-        <v>153000000</v>
-      </c>
-      <c r="N10">
-        <v>218000000</v>
-      </c>
-      <c r="O10">
-        <v>234000000</v>
-      </c>
-      <c r="P10">
-        <v>177000000</v>
-      </c>
-      <c r="Q10">
-        <v>205000000</v>
-      </c>
-      <c r="R10">
-        <v>210000000</v>
-      </c>
-      <c r="S10">
-        <v>202000000</v>
-      </c>
-      <c r="T10">
-        <v>186000000</v>
-      </c>
-      <c r="U10">
-        <v>209000000</v>
-      </c>
-      <c r="V10">
-        <v>294000000</v>
-      </c>
-      <c r="W10">
-        <v>304000000</v>
-      </c>
-      <c r="X10">
-        <v>104000000</v>
-      </c>
-      <c r="Y10">
-        <v>287000000</v>
-      </c>
-      <c r="Z10">
-        <v>273000000</v>
-      </c>
-      <c r="AA10">
-        <v>252000000</v>
-      </c>
-      <c r="AB10">
-        <v>246000000</v>
-      </c>
-      <c r="AC10">
-        <v>251000000</v>
-      </c>
-      <c r="AD10">
-        <v>222000000</v>
-      </c>
-      <c r="AE10">
-        <v>80000000</v>
-      </c>
-      <c r="AF10">
-        <v>241000000</v>
-      </c>
-      <c r="AG10">
-        <v>277000000</v>
-      </c>
-      <c r="AH10">
-        <v>172000000</v>
-      </c>
-      <c r="AI10">
-        <v>216000000</v>
-      </c>
-      <c r="AJ10">
-        <v>256000000</v>
-      </c>
-      <c r="AK10">
-        <v>401000000</v>
-      </c>
-      <c r="AL10">
-        <v>450000000</v>
-      </c>
-      <c r="AM10">
-        <v>221000000</v>
-      </c>
-      <c r="AN10">
-        <v>481000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1637000000</v>
-      </c>
-      <c r="C11">
-        <v>1532000000</v>
-      </c>
-      <c r="D11">
-        <v>1416000000</v>
-      </c>
-      <c r="E11">
-        <v>1602000000</v>
-      </c>
-      <c r="F11">
-        <v>1704000000</v>
-      </c>
-      <c r="G11">
-        <v>1658000000</v>
-      </c>
-      <c r="H11">
-        <v>1473000000</v>
-      </c>
-      <c r="I11">
-        <v>1330000000</v>
-      </c>
-      <c r="J11">
-        <v>1141000000</v>
-      </c>
-      <c r="K11">
-        <v>958000000</v>
-      </c>
-      <c r="L11">
-        <v>1063000000</v>
-      </c>
-      <c r="M11">
-        <v>726000000</v>
-      </c>
-      <c r="N11">
-        <v>828000000</v>
-      </c>
-      <c r="O11">
-        <v>885000000</v>
-      </c>
-      <c r="P11">
-        <v>798000000</v>
-      </c>
-      <c r="Q11">
-        <v>805000000</v>
-      </c>
-      <c r="R11">
-        <v>839000000</v>
-      </c>
-      <c r="S11">
-        <v>822000000</v>
-      </c>
-      <c r="T11">
-        <v>791000000</v>
-      </c>
-      <c r="U11">
-        <v>667000000</v>
-      </c>
-      <c r="V11">
-        <v>648000000</v>
-      </c>
-      <c r="W11">
-        <v>674000000</v>
-      </c>
-      <c r="X11">
-        <v>426000000</v>
-      </c>
-      <c r="Y11">
-        <v>643000000</v>
-      </c>
-      <c r="Z11">
-        <v>642000000</v>
-      </c>
-      <c r="AA11">
-        <v>587000000</v>
-      </c>
-      <c r="AB11">
-        <v>570000000</v>
-      </c>
-      <c r="AC11">
-        <v>542000000</v>
-      </c>
-      <c r="AD11">
-        <v>533000000</v>
-      </c>
-      <c r="AE11">
-        <v>501000000</v>
-      </c>
-      <c r="AF11">
-        <v>547000000</v>
-      </c>
-      <c r="AG11">
-        <v>603000000</v>
-      </c>
-      <c r="AH11">
-        <v>553000000</v>
-      </c>
-      <c r="AI11">
-        <v>477000000</v>
-      </c>
-      <c r="AJ11">
-        <v>573000000</v>
-      </c>
-      <c r="AK11">
-        <v>589000000</v>
-      </c>
-      <c r="AL11">
-        <v>309000000</v>
-      </c>
-      <c r="AM11">
-        <v>576000000</v>
-      </c>
-      <c r="AN11">
-        <v>256000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>71000000</v>
+      </c>
+      <c r="C12">
         <v>97000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>77000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>88000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>78000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>88000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>98000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>143000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>101000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>70000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>53000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>74000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>19000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>90000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>44000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>43000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>44000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>43000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>44000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>43000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>44000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>43000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>44000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>43000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>44000000</v>
-      </c>
-      <c r="Z12">
-        <v>43000000</v>
       </c>
       <c r="AA12">
         <v>43000000</v>
       </c>
       <c r="AB12">
-        <v>37000000</v>
+        <v>43000000</v>
       </c>
       <c r="AC12">
         <v>37000000</v>
@@ -1934,36 +2081,39 @@
         <v>37000000</v>
       </c>
       <c r="AM12">
+        <v>37000000</v>
+      </c>
+      <c r="AN12">
         <v>13000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>30000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>1000000</v>
+      </c>
+      <c r="C13">
         <v>4000000</v>
-      </c>
-      <c r="C13">
-        <v>1000000</v>
       </c>
       <c r="D13">
         <v>1000000</v>
       </c>
-      <c r="G13">
+      <c r="E13">
         <v>1000000</v>
       </c>
       <c r="H13">
+        <v>1000000</v>
+      </c>
+      <c r="I13">
         <v>-4000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1000000</v>
-      </c>
-      <c r="J13">
-        <v>3000000</v>
       </c>
       <c r="K13">
         <v>3000000</v>
@@ -1972,822 +2122,837 @@
         <v>3000000</v>
       </c>
       <c r="M13">
+        <v>3000000</v>
+      </c>
+      <c r="N13">
         <v>5000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-1000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>6000000</v>
-      </c>
-      <c r="Q13">
-        <v>7000000</v>
       </c>
       <c r="R13">
         <v>7000000</v>
       </c>
       <c r="S13">
-        <v>3000000</v>
+        <v>7000000</v>
       </c>
       <c r="T13">
         <v>3000000</v>
       </c>
       <c r="U13">
+        <v>3000000</v>
+      </c>
+      <c r="V13">
         <v>9000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>8000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-1000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>5000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>7000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>3000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>6000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>3000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>4000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>10000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>22000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>15000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>4000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>16000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>40000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>14000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>4000000</v>
-      </c>
-      <c r="AM13">
-        <v>16000000</v>
       </c>
       <c r="AN13">
         <v>16000000</v>
       </c>
+      <c r="AO13">
+        <v>16000000</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>1610000000</v>
+      </c>
+      <c r="C14">
         <v>1536000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1454000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1327000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1524000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1616000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1559000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1334000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1228000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1068000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>902000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>986000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>702000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>735000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>842000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>749000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>754000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>789000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>775000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>745000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>614000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>597000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>631000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>378000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>592000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>599000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>541000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>527000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>502000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>492000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>454000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>488000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>551000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>512000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>424000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>496000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>538000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>268000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>547000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>210000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>1.16</v>
+      </c>
+      <c r="D15">
+        <v>1.09</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>1.15</v>
       </c>
-      <c r="C15">
-        <v>1.09</v>
-      </c>
-      <c r="D15">
+      <c r="G15">
+        <v>1.21</v>
+      </c>
+      <c r="H15">
+        <v>1.16</v>
+      </c>
+      <c r="I15">
         <v>0.99</v>
       </c>
-      <c r="E15">
-        <v>1.13</v>
-      </c>
-      <c r="F15">
-        <v>1.2</v>
-      </c>
-      <c r="G15">
-        <v>1.16</v>
-      </c>
-      <c r="H15">
+      <c r="J15">
+        <v>0.91</v>
+      </c>
+      <c r="K15">
+        <v>0.79</v>
+      </c>
+      <c r="L15">
+        <v>0.67</v>
+      </c>
+      <c r="M15">
+        <v>0.73</v>
+      </c>
+      <c r="N15">
+        <v>0.76</v>
+      </c>
+      <c r="O15">
+        <v>0.96</v>
+      </c>
+      <c r="P15">
+        <v>1.1</v>
+      </c>
+      <c r="Q15">
+        <v>0.98</v>
+      </c>
+      <c r="R15">
         <v>0.99</v>
       </c>
-      <c r="I15">
-        <v>0.91</v>
-      </c>
-      <c r="J15">
-        <v>0.79</v>
-      </c>
-      <c r="K15">
-        <v>0.67</v>
-      </c>
-      <c r="L15">
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0.96</v>
+      </c>
+      <c r="V15">
+        <v>0.78</v>
+      </c>
+      <c r="W15">
+        <v>0.75</v>
+      </c>
+      <c r="X15">
+        <v>0.78</v>
+      </c>
+      <c r="Y15">
+        <v>0.47</v>
+      </c>
+      <c r="Z15">
         <v>0.73</v>
       </c>
-      <c r="M15">
-        <v>0.76</v>
-      </c>
-      <c r="N15">
-        <v>0.96</v>
-      </c>
-      <c r="O15">
-        <v>1.1</v>
-      </c>
-      <c r="P15">
-        <v>0.98</v>
-      </c>
-      <c r="Q15">
-        <v>0.99</v>
-      </c>
-      <c r="R15">
-        <v>1.02</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0.96</v>
-      </c>
-      <c r="U15">
-        <v>0.78</v>
-      </c>
-      <c r="V15">
-        <v>0.75</v>
-      </c>
-      <c r="W15">
-        <v>0.78</v>
-      </c>
-      <c r="X15">
-        <v>0.47</v>
-      </c>
-      <c r="Y15">
-        <v>0.73</v>
-      </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.74</v>
-      </c>
-      <c r="AA15">
-        <v>0.67</v>
       </c>
       <c r="AB15">
         <v>0.67</v>
       </c>
       <c r="AC15">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AD15">
         <v>0.64</v>
       </c>
       <c r="AE15">
+        <v>0.64</v>
+      </c>
+      <c r="AF15">
         <v>0.63</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.68</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.77</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.72</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.59</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.7</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.76</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.38</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0.78</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1.15</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.09</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.99</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.13</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.16</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.98</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.9</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.79</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>0.67</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.73</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.75</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0.95</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.09</v>
-      </c>
-      <c r="P16">
-        <v>0.97</v>
       </c>
       <c r="Q16">
         <v>0.97</v>
       </c>
       <c r="R16">
+        <v>0.97</v>
+      </c>
+      <c r="S16">
         <v>1.01</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.99</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.9399999999999999</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.77</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.74</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.77</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.46</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.72</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.73</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.66</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.67</v>
-      </c>
-      <c r="AC16">
-        <v>0.64</v>
       </c>
       <c r="AD16">
         <v>0.64</v>
       </c>
       <c r="AE16">
+        <v>0.64</v>
+      </c>
+      <c r="AF16">
         <v>0.62</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.67</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.76</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.71</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.58</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.75</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.37</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.77</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>1327000000</v>
+        <v>1326787000</v>
       </c>
       <c r="C17">
-        <v>1330000000</v>
+        <v>1326539000</v>
       </c>
       <c r="D17">
-        <v>1329000000</v>
+        <v>1330160000</v>
       </c>
       <c r="E17">
-        <v>1330000000</v>
+        <v>1329037000</v>
       </c>
       <c r="F17">
-        <v>1335000000</v>
+        <v>1337144000</v>
       </c>
       <c r="G17">
+        <v>1334825000</v>
+      </c>
+      <c r="H17">
         <v>1338302000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1345666000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1347080000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1347916000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1347512000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1344372000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>805104000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>766167000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>765958000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>764135000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>772963000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>771562000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>775836000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>779617000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>799217000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>794558000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>808980000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>809903000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>804680000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>812521000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>814261000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>781193000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>748010000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>764435000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>724880000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>721639000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>718140000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>720117000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>719080000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>712842000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>703042000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>704134000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>702082000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>700275000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>1337000000</v>
+        <v>1337338000</v>
       </c>
       <c r="C18">
-        <v>1339000000</v>
+        <v>1336659000</v>
       </c>
       <c r="D18">
-        <v>1342000000</v>
+        <v>1338864000</v>
       </c>
       <c r="E18">
-        <v>1343000000</v>
+        <v>1341563000</v>
       </c>
       <c r="F18">
-        <v>1347000000</v>
+        <v>1349378000</v>
       </c>
       <c r="G18">
+        <v>1346854000</v>
+      </c>
+      <c r="H18">
         <v>1349492000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1358932000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1358289000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1358122000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1355834000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1357545000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>815204000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>775791000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>774603000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>774071000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>783484000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>781867000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>785750000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>791005000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>810977000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>806124000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>819389000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>822719000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>814916000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>823106000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>823682000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>790176000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>757765000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>774023000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>734527000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>731511000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>728372000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>729989000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>728452000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>724283000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>714363000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>716101000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>712861000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>711020000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>0.9873</v>
+        <v>0.8316</v>
       </c>
       <c r="C19">
-        <v>0.9898</v>
+        <v>0.9036</v>
       </c>
       <c r="D19">
-        <v>0.9828</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="E19">
-        <v>1.0105</v>
+        <v>0.9684</v>
       </c>
       <c r="F19">
-        <v>0.9883</v>
+        <v>0.9707</v>
       </c>
       <c r="G19">
+        <v>0.9667</v>
+      </c>
+      <c r="H19">
         <v>0.9661</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.9633</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.9584</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.9553</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.9303</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.8784999999999999</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.861</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.8529</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.855</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.8587</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.8721</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.8845</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.8952</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.9071</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.9187</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.9244</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.9379</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.9437</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.9381</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.9375</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.9359</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.9298999999999999</v>
-      </c>
-      <c r="AC19">
-        <v>0.9295</v>
       </c>
       <c r="AD19">
         <v>0.9295</v>
       </c>
       <c r="AE19">
+        <v>0.9295</v>
+      </c>
+      <c r="AF19">
         <v>0.9294</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.9273</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.928</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.9229000000000001</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.9222</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.9195</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.923</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.9127</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.9152</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.9109</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2906,1108 +3071,1135 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0.3377</v>
+        <v>0.2705</v>
       </c>
       <c r="C21">
-        <v>0.3333</v>
+        <v>0.3091</v>
       </c>
       <c r="D21">
-        <v>0.3223</v>
+        <v>0.3216</v>
       </c>
       <c r="E21">
-        <v>0.3575</v>
+        <v>0.3175</v>
       </c>
       <c r="F21">
-        <v>0.3755</v>
+        <v>0.3434</v>
       </c>
       <c r="G21">
+        <v>0.3673</v>
+      </c>
+      <c r="H21">
         <v>0.3545</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3205</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2783</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2393</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.1821</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.2015</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2088</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2971</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.3145</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2889</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2996</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.3171</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.3184</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.3151</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.2805</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.3096</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3213</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.1799</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3199</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3092</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2859</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2981</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2926</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2862</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2317</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3165</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.3465</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.2912</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2778</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.3352</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.3736</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2983</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2964</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2771</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0.2594</v>
+        <v>0.2157</v>
       </c>
       <c r="C22">
-        <v>0.2545</v>
+        <v>0.2374</v>
       </c>
       <c r="D22">
-        <v>0.2449</v>
+        <v>0.2456</v>
       </c>
       <c r="E22">
-        <v>0.2767</v>
+        <v>0.2413</v>
       </c>
       <c r="F22">
-        <v>0.2853</v>
+        <v>0.2658</v>
       </c>
       <c r="G22">
+        <v>0.2791</v>
+      </c>
+      <c r="H22">
         <v>0.2666</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2344</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2083</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1831</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1429</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1544</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1667</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2087</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.2366</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2219</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2237</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2385</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.241</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2402</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1966</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1962</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2073</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1283</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2036</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2024</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1843</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1925</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1852</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1865</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.181</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.196</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.2169</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2056</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1699</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.2006</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.203</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1053</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2034</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.0789</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>1682000000</v>
+      </c>
+      <c r="C23">
         <v>1637000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1532000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1416000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1602000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1704000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1658000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1473000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1330000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1141000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>958000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1063000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>726000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>828000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>885000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>798000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>805000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>839000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>822000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>791000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>667000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>648000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>674000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>426000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>643000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>642000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>587000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>570000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>542000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>533000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>501000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>547000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>603000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>553000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>477000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>573000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>589000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>309000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>576000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>256000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1682000000</v>
+      </c>
+      <c r="C24">
         <v>1637000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1532000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1416000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1602000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1704000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1658000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1473000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1330000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1141000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>958000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1063000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>726000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>828000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>885000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>798000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>805000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>839000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>822000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>791000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>667000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>648000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>674000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>426000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>643000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>642000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>587000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>570000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>542000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>533000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>501000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>547000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>603000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>553000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>477000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>573000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>589000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>309000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>576000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>256000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1.2677</v>
+      </c>
+      <c r="C25">
         <v>1.234</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.1517</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1.0654</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.2039</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.2766</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.2389</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.0946</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.9865</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.8465</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.7109</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.7907</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.7402</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1.0807</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.1554</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1.0443</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1.0521</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1.0874</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.0595</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1.0146</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.847</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.8155</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.8331</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.526</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.7941</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.7901</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.7209</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.7297</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.6918</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.6972</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.6911</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.758</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.8367</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.7679</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.6633</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.8038</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.8359</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.4388</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.8204</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.3656</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1.2577</v>
+      </c>
+      <c r="C26">
         <v>1.2247</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.1443</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.0555</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.1926</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.2652</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.2286</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.0839</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.9774</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.8401</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.7066</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.783</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.7301</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.0673</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.1425</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1.0309</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1.0379</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1.0731</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.0461</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.8337</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.8038</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.8226</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.5178</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.7826</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.78</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.7127</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.7214</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.6832</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.6886</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.6821</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.7478</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.8252</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.7575</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.6548</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.7911</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.8222</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.4315</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.8080000000000001</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.36</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>1.2677</v>
+      </c>
+      <c r="C27">
         <v>1.234</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.1517</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1.0654</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.2039</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.2766</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.2389</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.0946</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.9865</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.8465</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.7109</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.7907</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.7402</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1.0807</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.1554</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1.0443</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1.0521</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1.0874</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.0595</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.0146</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.847</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.8155</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.8331</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.526</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.7941</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.7901</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.7209</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.7297</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.6918</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.6972</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.6911</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.758</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.8367</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.7679</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.6633</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.8038</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.8359</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.4388</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.8204</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.3656</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1.2577</v>
+      </c>
+      <c r="C28">
         <v>1.2247</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.1443</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.0555</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.1926</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.2652</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.2286</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.0839</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.9774</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.8401</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.7066</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>0.783</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.7301</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.0673</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.1425</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.0309</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1.0379</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.0731</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.0461</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.8337</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.8038</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.8226</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.5178</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.7826</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.78</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.7127</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.7214</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.6832</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.6886</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.6821</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.7478</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.8252</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.7575</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.6548</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.7911</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.8222</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.4315</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.8080000000000001</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.36</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>1336659000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1338864000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1341563000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1343029000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1346854000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1349492000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1358932000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1361763000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1358122000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1355834000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1357545000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>934718000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>775791000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>774603000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>774071000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>775402000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>781867000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>785750000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>791005000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>795867000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>806124000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>819389000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>822719000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>821971000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>823106000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>823682000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>790176000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>790244000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>774023000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>734527000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>731511000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>730652000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>729989000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>728452000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>724283000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>717671000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>716101000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>712861000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>711020000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4126,126 +4318,132 @@
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>0.6366000000000001</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.694</v>
+        <v>0.5826</v>
       </c>
       <c r="D31">
-        <v>-0.0347</v>
+        <v>0.6697</v>
       </c>
       <c r="E31">
-        <v>0.8727</v>
+        <v>-0.0342</v>
       </c>
       <c r="F31">
-        <v>-0.0385</v>
+        <v>0.8383</v>
       </c>
       <c r="G31">
+        <v>-0.0376</v>
+      </c>
+      <c r="H31">
         <v>0.5705</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.0058</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.4084</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.07290000000000001</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-0.0038</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.7246</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-0.1055</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.5041</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.2625</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-0.2207</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.4067</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.4689</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.3479</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.0993</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.5367</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.4834</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.4369</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.0536</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.8524</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-0.0757</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.3376</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>-0.0475</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.4535</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.7127</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.2452</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-0.2382</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.6717</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.2518</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.0982</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.2556</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.3426</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-0.2193</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.698</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.162</v>
       </c>
     </row>
